--- a/Final Report/figures/tables.xlsx
+++ b/Final Report/figures/tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>j85cCQrGQajh13H83p5RVrAI1QN1PuMud4VlyUeqaGM=</t>
   </si>
@@ -147,14 +147,97 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Groupedall</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>A-21-0-005</t>
+  </si>
+  <si>
+    <t>A-21-0-045</t>
+  </si>
+  <si>
+    <t>A-21-0-046</t>
+  </si>
+  <si>
+    <t>A-21-0-043</t>
+  </si>
+  <si>
+    <t>A-20-0-008</t>
+  </si>
+  <si>
+    <t>A-20-0-045</t>
+  </si>
+  <si>
+    <t>000c+YfkIi..</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>ap_start</t>
+  </si>
+  <si>
+    <t>ap_end</t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>MAC address</t>
+  </si>
+  <si>
+    <t>east entrance</t>
+  </si>
+  <si>
+    <t>west entrance</t>
+  </si>
+  <si>
+    <t>main entrance</t>
+  </si>
+  <si>
+    <t>00-15-C7-80-9A-60</t>
+  </si>
+  <si>
+    <t>00-22-90-5E-66-F0</t>
+  </si>
+  <si>
+    <t>00-22-90-38-7F-D0</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>A-09-E-102</t>
+  </si>
+  <si>
+    <t>1st floor West MSc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,10 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -500,17 +585,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,7 +1360,289 @@
       <c r="D44" s="1"/>
       <c r="G44" s="2"/>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>42459.982557870368</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42466.944328703707</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>21</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42466.944328703707</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42466.979305555556</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>42466.986273148148</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42470.828564814816</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>42470.835543981484</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42470.884629629632</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42470.884629629632</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42470.898611111108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52" s="1">
+        <v>42470.919675925928</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42470.930150462962</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42470.930150462962</v>
+      </c>
+      <c r="D53" s="1">
+        <v>42470.968611111108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42470.97556712963</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42471.519178240742</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42471.519178240742</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42471.559074074074</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42471.559074074074</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42471.581064814818</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>